--- a/database/industries/methanol/shefan/cost/yearly.xlsx
+++ b/database/industries/methanol/shefan/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847FF23-785C-48B5-8C43-ABC4119F122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF6B4E-EE61-4D2B-B765-139FAEE03ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -662,7 +662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -696,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,7 +730,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -762,95 +762,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>3123519</v>
+        <v>7250403</v>
       </c>
       <c r="F10" s="9">
-        <v>7250403</v>
+        <v>8815088</v>
       </c>
       <c r="G10" s="9">
-        <v>8815088</v>
+        <v>16495641</v>
       </c>
       <c r="H10" s="9">
-        <v>16495641</v>
+        <v>44555576</v>
       </c>
       <c r="I10" s="9">
-        <v>44555576</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36997537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>107813</v>
+        <v>139830</v>
       </c>
       <c r="F11" s="11">
-        <v>139830</v>
+        <v>183383</v>
       </c>
       <c r="G11" s="11">
-        <v>183383</v>
+        <v>258981</v>
       </c>
       <c r="H11" s="11">
-        <v>258981</v>
+        <v>355269</v>
       </c>
       <c r="I11" s="11">
-        <v>355269</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>639750</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>2630051</v>
+        <v>3188170</v>
       </c>
       <c r="F12" s="9">
-        <v>3188170</v>
+        <v>4456588</v>
       </c>
       <c r="G12" s="9">
-        <v>4456588</v>
+        <v>7000668</v>
       </c>
       <c r="H12" s="9">
-        <v>7000668</v>
+        <v>16068124</v>
       </c>
       <c r="I12" s="9">
-        <v>16068124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22215729</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>5861383</v>
+        <v>10578403</v>
       </c>
       <c r="F13" s="13">
-        <v>10578403</v>
+        <v>13455059</v>
       </c>
       <c r="G13" s="13">
-        <v>13455059</v>
+        <v>23755290</v>
       </c>
       <c r="H13" s="13">
-        <v>23755290</v>
+        <v>60978969</v>
       </c>
       <c r="I13" s="13">
-        <v>60978969</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59853016</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -872,29 +872,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>5861383</v>
+        <v>10578403</v>
       </c>
       <c r="F15" s="13">
-        <v>10578403</v>
+        <v>13455059</v>
       </c>
       <c r="G15" s="13">
-        <v>13455059</v>
+        <v>23755290</v>
       </c>
       <c r="H15" s="13">
-        <v>23755290</v>
+        <v>60978969</v>
       </c>
       <c r="I15" s="13">
-        <v>60978969</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59853016</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,117 +916,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>-1001</v>
       </c>
       <c r="G17" s="11">
-        <v>-1001</v>
+        <v>-3814</v>
       </c>
       <c r="H17" s="11">
-        <v>-3814</v>
+        <v>-2</v>
       </c>
       <c r="I17" s="11">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>5861345</v>
+        <v>10578403</v>
       </c>
       <c r="F18" s="15">
-        <v>10578403</v>
+        <v>13454058</v>
       </c>
       <c r="G18" s="15">
-        <v>13454058</v>
+        <v>23751476</v>
       </c>
       <c r="H18" s="15">
-        <v>23751476</v>
+        <v>60978967</v>
       </c>
       <c r="I18" s="15">
-        <v>60978967</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59853015</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>206646</v>
+        <v>352030</v>
       </c>
       <c r="F19" s="11">
-        <v>352030</v>
+        <v>278578</v>
       </c>
       <c r="G19" s="11">
-        <v>278578</v>
+        <v>561575</v>
       </c>
       <c r="H19" s="11">
-        <v>561575</v>
+        <v>492652</v>
       </c>
       <c r="I19" s="11">
-        <v>492652</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2672434</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-352030</v>
+        <v>-278578</v>
       </c>
       <c r="F20" s="9">
-        <v>-278578</v>
+        <v>-561575</v>
       </c>
       <c r="G20" s="9">
-        <v>-561575</v>
+        <v>-492652</v>
       </c>
       <c r="H20" s="9">
-        <v>-492652</v>
+        <v>-2672434</v>
       </c>
       <c r="I20" s="9">
-        <v>-2672434</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1834476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>5715961</v>
+        <v>10651855</v>
       </c>
       <c r="F21" s="13">
-        <v>10651855</v>
+        <v>13171061</v>
       </c>
       <c r="G21" s="13">
-        <v>13171061</v>
+        <v>23820399</v>
       </c>
       <c r="H21" s="13">
-        <v>23820399</v>
+        <v>58799185</v>
       </c>
       <c r="I21" s="13">
-        <v>58799185</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60690973</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1048,29 +1048,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>5715961</v>
+        <v>10651855</v>
       </c>
       <c r="F23" s="13">
-        <v>10651855</v>
+        <v>13171061</v>
       </c>
       <c r="G23" s="13">
-        <v>13171061</v>
+        <v>23820399</v>
       </c>
       <c r="H23" s="13">
-        <v>23820399</v>
+        <v>58799185</v>
       </c>
       <c r="I23" s="13">
-        <v>58799185</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60690973</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1090,7 +1090,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1132,7 +1132,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1149,14 +1149,14 @@
       <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1164,8 +1164,8 @@
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1188,8 +1188,8 @@
         <v>29</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>0</v>
       </c>
       <c r="F31" s="9">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1236,7 +1236,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1246,7 +1246,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1256,7 +1256,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1288,7 +1288,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1305,14 +1305,14 @@
       <c r="G38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>26</v>
+      <c r="H38" s="9">
+        <v>16551</v>
       </c>
       <c r="I38" s="9">
-        <v>16551</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
@@ -1320,23 +1320,23 @@
         <v>25</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>26</v>
+      <c r="E39" s="11">
+        <v>266950</v>
       </c>
       <c r="F39" s="11">
-        <v>266950</v>
+        <v>233</v>
       </c>
       <c r="G39" s="11">
-        <v>233</v>
+        <v>200432</v>
       </c>
       <c r="H39" s="11">
-        <v>200432</v>
+        <v>167148</v>
       </c>
       <c r="I39" s="11">
-        <v>167148</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1344,45 +1344,45 @@
         <v>29</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>26</v>
+      <c r="E40" s="9">
+        <v>706963</v>
       </c>
       <c r="F40" s="9">
-        <v>706963</v>
+        <v>761</v>
       </c>
       <c r="G40" s="9">
-        <v>761</v>
+        <v>785283</v>
       </c>
       <c r="H40" s="9">
-        <v>785283</v>
+        <v>752499</v>
       </c>
       <c r="I40" s="9">
-        <v>752499</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>689162</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>973913</v>
       </c>
       <c r="F41" s="13">
-        <v>973913</v>
+        <v>994</v>
       </c>
       <c r="G41" s="13">
-        <v>994</v>
+        <v>985715</v>
       </c>
       <c r="H41" s="13">
-        <v>985715</v>
+        <v>936198</v>
       </c>
       <c r="I41" s="13">
-        <v>936198</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>855413</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1392,7 +1392,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1402,7 +1402,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1412,7 +1412,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>31</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1444,7 +1444,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1461,14 +1461,14 @@
       <c r="G47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>26</v>
+      <c r="H47" s="9">
+        <v>16551</v>
       </c>
       <c r="I47" s="9">
-        <v>16551</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -1476,23 +1476,23 @@
         <v>25</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
+      <c r="E48" s="11">
+        <v>266950</v>
       </c>
       <c r="F48" s="11">
-        <v>266950</v>
+        <v>233</v>
       </c>
       <c r="G48" s="11">
-        <v>233</v>
+        <v>200432</v>
       </c>
       <c r="H48" s="11">
-        <v>200432</v>
+        <v>167148</v>
       </c>
       <c r="I48" s="11">
-        <v>167148</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161202</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1500,45 +1500,45 @@
         <v>29</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>26</v>
+      <c r="E49" s="9">
+        <v>706963</v>
       </c>
       <c r="F49" s="9">
-        <v>706963</v>
+        <v>761</v>
       </c>
       <c r="G49" s="9">
-        <v>761</v>
+        <v>785283</v>
       </c>
       <c r="H49" s="9">
-        <v>785283</v>
+        <v>752499</v>
       </c>
       <c r="I49" s="9">
-        <v>752499</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>689162</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>0</v>
+        <v>973913</v>
       </c>
       <c r="F50" s="13">
-        <v>973913</v>
+        <v>994</v>
       </c>
       <c r="G50" s="13">
-        <v>994</v>
+        <v>985715</v>
       </c>
       <c r="H50" s="13">
-        <v>985715</v>
+        <v>936198</v>
       </c>
       <c r="I50" s="13">
-        <v>936198</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>855413</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1548,7 +1548,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1558,7 +1558,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1600,7 +1600,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -1617,14 +1617,14 @@
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>26</v>
+      <c r="H56" s="9">
+        <v>0</v>
       </c>
       <c r="I56" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
@@ -1632,8 +1632,8 @@
         <v>25</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>26</v>
+      <c r="E57" s="11">
+        <v>0</v>
       </c>
       <c r="F57" s="11">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>28</v>
       </c>
@@ -1656,8 +1656,8 @@
         <v>29</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
-        <v>26</v>
+      <c r="E58" s="9">
+        <v>0</v>
       </c>
       <c r="F58" s="9">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>12</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1704,7 +1704,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1714,7 +1714,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1724,7 +1724,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>33</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1756,7 +1756,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1773,14 +1773,14 @@
       <c r="G65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>26</v>
+      <c r="H65" s="9">
+        <v>0</v>
       </c>
       <c r="I65" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1788,8 +1788,8 @@
         <v>34</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
+      <c r="E66" s="11">
+        <v>0</v>
       </c>
       <c r="F66" s="11">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1812,8 +1812,8 @@
         <v>34</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>26</v>
+      <c r="E67" s="9">
+        <v>0</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1870,7 +1870,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>35</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -1929,14 +1929,14 @@
       <c r="G74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>26</v>
+      <c r="H74" s="9">
+        <v>1507271</v>
       </c>
       <c r="I74" s="9">
-        <v>1507271</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>466179</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>27</v>
       </c>
@@ -1944,23 +1944,23 @@
         <v>34</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>26</v>
+      <c r="E75" s="11">
+        <v>280377</v>
       </c>
       <c r="F75" s="11">
-        <v>280377</v>
+        <v>584158</v>
       </c>
       <c r="G75" s="11">
-        <v>584158</v>
+        <v>724539</v>
       </c>
       <c r="H75" s="11">
-        <v>724539</v>
+        <v>637960</v>
       </c>
       <c r="I75" s="11">
-        <v>637960</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>804172</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>28</v>
       </c>
@@ -1968,45 +1968,45 @@
         <v>34</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
-        <v>26</v>
+      <c r="E76" s="9">
+        <v>6970167</v>
       </c>
       <c r="F76" s="9">
-        <v>6970167</v>
+        <v>8230930</v>
       </c>
       <c r="G76" s="9">
-        <v>8230930</v>
+        <v>15771102</v>
       </c>
       <c r="H76" s="9">
-        <v>15771102</v>
+        <v>42410345</v>
       </c>
       <c r="I76" s="9">
-        <v>42410345</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35727186</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>0</v>
+        <v>7250544</v>
       </c>
       <c r="F77" s="13">
-        <v>7250544</v>
+        <v>8815088</v>
       </c>
       <c r="G77" s="13">
-        <v>8815088</v>
+        <v>16495641</v>
       </c>
       <c r="H77" s="13">
-        <v>16495641</v>
+        <v>44555576</v>
       </c>
       <c r="I77" s="13">
-        <v>44555576</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36997537</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2016,7 +2016,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2026,7 +2026,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2036,7 +2036,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>36</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2068,7 +2068,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2085,14 +2085,14 @@
       <c r="G83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>26</v>
+      <c r="H83" s="9">
+        <v>1507271</v>
       </c>
       <c r="I83" s="9">
-        <v>1507271</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>466179</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2100,23 +2100,23 @@
         <v>34</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
+      <c r="E84" s="11">
+        <v>280377</v>
       </c>
       <c r="F84" s="11">
-        <v>280377</v>
+        <v>584158</v>
       </c>
       <c r="G84" s="11">
-        <v>584158</v>
+        <v>724539</v>
       </c>
       <c r="H84" s="11">
-        <v>724539</v>
+        <v>637960</v>
       </c>
       <c r="I84" s="11">
-        <v>637960</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>804172</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2124,45 +2124,45 @@
         <v>34</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
+      <c r="E85" s="9">
+        <v>6970167</v>
       </c>
       <c r="F85" s="9">
-        <v>6970167</v>
+        <v>8230930</v>
       </c>
       <c r="G85" s="9">
-        <v>8230930</v>
+        <v>15771102</v>
       </c>
       <c r="H85" s="9">
-        <v>15771102</v>
+        <v>42410345</v>
       </c>
       <c r="I85" s="9">
-        <v>42410345</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35727186</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>7250544</v>
       </c>
       <c r="F86" s="13">
-        <v>7250544</v>
+        <v>8815088</v>
       </c>
       <c r="G86" s="13">
-        <v>8815088</v>
+        <v>16495641</v>
       </c>
       <c r="H86" s="13">
-        <v>16495641</v>
+        <v>44555576</v>
       </c>
       <c r="I86" s="13">
-        <v>44555576</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36997537</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2172,7 +2172,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2182,7 +2182,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2192,7 +2192,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>37</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2224,7 +2224,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2241,14 +2241,14 @@
       <c r="G92" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H92" s="9" t="s">
-        <v>26</v>
+      <c r="H92" s="9">
+        <v>0</v>
       </c>
       <c r="I92" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>27</v>
       </c>
@@ -2256,8 +2256,8 @@
         <v>34</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>26</v>
+      <c r="E93" s="11">
+        <v>0</v>
       </c>
       <c r="F93" s="11">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2280,8 +2280,8 @@
         <v>34</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>26</v>
+      <c r="E94" s="9">
+        <v>0</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2328,7 +2328,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2338,7 +2338,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2348,7 +2348,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>38</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2380,7 +2380,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2397,14 +2397,14 @@
       <c r="G101" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
+      <c r="H101" s="9">
+        <v>91068274</v>
       </c>
       <c r="I101" s="9">
-        <v>91068274</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92330957</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2412,23 +2412,23 @@
         <v>39</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
+      <c r="E102" s="11">
+        <v>1050298</v>
       </c>
       <c r="F102" s="11">
-        <v>1050298</v>
+        <v>2507115880</v>
       </c>
       <c r="G102" s="11">
-        <v>2507115880</v>
+        <v>3614887</v>
       </c>
       <c r="H102" s="11">
-        <v>3614887</v>
+        <v>3816737</v>
       </c>
       <c r="I102" s="11">
-        <v>3816737</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4988598</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2436,23 +2436,23 @@
         <v>40</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
+      <c r="E103" s="9">
+        <v>9859309</v>
       </c>
       <c r="F103" s="9">
-        <v>9859309</v>
+        <v>10815939553</v>
       </c>
       <c r="G103" s="9">
-        <v>10815939553</v>
+        <v>20083336</v>
       </c>
       <c r="H103" s="9">
-        <v>20083336</v>
+        <v>56359337</v>
       </c>
       <c r="I103" s="9">
-        <v>56359337</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51841492</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2462,7 +2462,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2472,7 +2472,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2482,7 +2482,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>41</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>24</v>
       </c>
@@ -2531,14 +2531,14 @@
       <c r="G109" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>26</v>
+      <c r="H109" s="9">
+        <v>91068274</v>
       </c>
       <c r="I109" s="9">
-        <v>91068274</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92330957</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>27</v>
       </c>
@@ -2546,23 +2546,23 @@
         <v>39</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>26</v>
+      <c r="E110" s="11">
+        <v>1050298</v>
       </c>
       <c r="F110" s="11">
-        <v>1050298</v>
+        <v>2507115880</v>
       </c>
       <c r="G110" s="11">
-        <v>2507115880</v>
+        <v>3614887</v>
       </c>
       <c r="H110" s="11">
-        <v>3614887</v>
+        <v>3816737</v>
       </c>
       <c r="I110" s="11">
-        <v>3816737</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4988598</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>28</v>
       </c>
@@ -2570,23 +2570,23 @@
         <v>40</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>26</v>
+      <c r="E111" s="9">
+        <v>9859309</v>
       </c>
       <c r="F111" s="9">
-        <v>9859309</v>
+        <v>10815939553</v>
       </c>
       <c r="G111" s="9">
-        <v>10815939553</v>
+        <v>20083336</v>
       </c>
       <c r="H111" s="9">
-        <v>20083336</v>
+        <v>56359337</v>
       </c>
       <c r="I111" s="9">
-        <v>56359337</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51841492</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2596,7 +2596,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2606,7 +2606,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2616,7 +2616,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>42</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2648,7 +2648,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>43</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>44</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>45</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>46</v>
       </c>
@@ -2736,95 +2736,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>22819</v>
+        <v>49439</v>
       </c>
       <c r="F121" s="9">
-        <v>49439</v>
+        <v>92598</v>
       </c>
       <c r="G121" s="9">
-        <v>92598</v>
+        <v>155661</v>
       </c>
       <c r="H121" s="9">
-        <v>155661</v>
+        <v>400420</v>
       </c>
       <c r="I121" s="9">
-        <v>400420</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>601483</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>1300232</v>
+        <v>1372433</v>
       </c>
       <c r="F122" s="11">
-        <v>1372433</v>
+        <v>2292023</v>
       </c>
       <c r="G122" s="11">
-        <v>2292023</v>
+        <v>2423014</v>
       </c>
       <c r="H122" s="11">
-        <v>2423014</v>
+        <v>11042048</v>
       </c>
       <c r="I122" s="11">
-        <v>11042048</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11296874</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>268468</v>
+        <v>277098</v>
       </c>
       <c r="F123" s="9">
-        <v>277098</v>
+        <v>178106</v>
       </c>
       <c r="G123" s="9">
-        <v>178106</v>
+        <v>154784</v>
       </c>
       <c r="H123" s="9">
-        <v>154784</v>
+        <v>132050</v>
       </c>
       <c r="I123" s="9">
-        <v>132050</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90558</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>249082</v>
+        <v>309017</v>
       </c>
       <c r="F124" s="11">
-        <v>309017</v>
+        <v>392384</v>
       </c>
       <c r="G124" s="11">
-        <v>392384</v>
+        <v>548442</v>
       </c>
       <c r="H124" s="11">
-        <v>548442</v>
+        <v>880602</v>
       </c>
       <c r="I124" s="11">
-        <v>880602</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1359856</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>51</v>
       </c>
@@ -2846,51 +2846,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>789450</v>
+        <v>1180183</v>
       </c>
       <c r="F126" s="11">
-        <v>1180183</v>
+        <v>1501477</v>
       </c>
       <c r="G126" s="11">
-        <v>1501477</v>
+        <v>3718767</v>
       </c>
       <c r="H126" s="11">
-        <v>3718767</v>
+        <v>3613004</v>
       </c>
       <c r="I126" s="11">
-        <v>3613004</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8866958</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
-        <v>2630051</v>
+        <v>3188170</v>
       </c>
       <c r="F127" s="15">
-        <v>3188170</v>
+        <v>4456588</v>
       </c>
       <c r="G127" s="15">
-        <v>4456588</v>
+        <v>7000668</v>
       </c>
       <c r="H127" s="15">
-        <v>7000668</v>
+        <v>16068124</v>
       </c>
       <c r="I127" s="15">
-        <v>16068124</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22215729</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>53</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>54</v>
       </c>
